--- a/biology/Zoologie/Australidelphia/Australidelphia.xlsx
+++ b/biology/Zoologie/Australidelphia/Australidelphia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australidelphia est un super-ordre qui regroupe environ les trois quarts de tous les marsupiaux, notamment tous ceux originaires d'Australasie et une espèce d'Amérique du Sud (Dromiciops gliroides). Tous les autres marsupiaux américains sont membres du super-ordre Ameridelphia. L'analyse des sites d'insertion des rétrotransposons dans l'ADN nucléaire d'un certain nombre de marsupiaux a montré que la lignée du Monito del Monte (Dromiciops gliroides) est le plus basal du superordre[1],[2]. Les australidelphiens forment un clade, pour lequel le nom d'Euaustralidelphia (vrais Australidelphia) a été proposé (l'ordre de branchement au sein de ce groupe est encore à déterminer)[2]. Cela indique que les Australidelphia sont apparus en Amérique du Sud et ont probablement atteint l'Australie lors d'un événement unique, après la dispersion des Microbiotheria[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australidelphia est un super-ordre qui regroupe environ les trois quarts de tous les marsupiaux, notamment tous ceux originaires d'Australasie et une espèce d'Amérique du Sud (Dromiciops gliroides). Tous les autres marsupiaux américains sont membres du super-ordre Ameridelphia. L'analyse des sites d'insertion des rétrotransposons dans l'ADN nucléaire d'un certain nombre de marsupiaux a montré que la lignée du Monito del Monte (Dromiciops gliroides) est le plus basal du superordre,. Les australidelphiens forment un clade, pour lequel le nom d'Euaustralidelphia (vrais Australidelphia) a été proposé (l'ordre de branchement au sein de ce groupe est encore à déterminer). Cela indique que les Australidelphia sont apparus en Amérique du Sud et ont probablement atteint l'Australie lors d'un événement unique, après la dispersion des Microbiotheria,. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Ordres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les ordres et les familles de ce super-ordre sont énumérés ci-dessous :
 Ordre Dasyuromorphia (71 espèces)
@@ -565,9 +579,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Australidelphia vivants basée sur les travaux de May-Collado, Kilpatrick &amp; Agnarsson 2015[3] avec des clades éteints de Black et al. 2012[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Australidelphia vivants basée sur les travaux de May-Collado, Kilpatrick &amp; Agnarsson 2015 avec des clades éteints de Black et al. 2012
 </t>
         </is>
       </c>
